--- a/teste5.xlsx
+++ b/teste5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.nascimento\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael.nascimento\Desktop\Sistema Online\frete_sistema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEEEB05-22BF-4D6E-A2EE-A35DD5D7BFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941C7E33-8D3D-4D09-9B09-652D538547A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C0912A9-F6D0-4F5E-9501-5CADBB0BDEC0}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{0C0912A9-F6D0-4F5E-9501-5CADBB0BDEC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Data de Emissão</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>status_finalizacao</t>
+  </si>
+  <si>
+    <t>Entregue</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,9 @@
       <c r="E2" s="11">
         <v>45569</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="17">
         <v>45569</v>
       </c>
@@ -637,7 +642,9 @@
       <c r="E3" s="15">
         <v>45569</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="18">
         <v>45569</v>
       </c>
@@ -667,7 +674,9 @@
       <c r="E4" s="11">
         <v>45570</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="17">
         <v>45570</v>
       </c>
